--- a/biology/Botanique/Enhalus/Enhalus.xlsx
+++ b/biology/Botanique/Enhalus/Enhalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enhalus est un genre monotypique d'herbes marines, plantes monocotylédones sous-marines de la famille des
-Hydrocharitaceae[1].
-Le nom générique Enhalus dérive du grec « en » (dans), « halo » (sel marin) et de la désinence latine « us » (du, de la) [2],[3], pour nommer une plante vivant en eau salée.
+Hydrocharitaceae.
+Le nom générique Enhalus dérive du grec « en » (dans), « halo » (sel marin) et de la désinence latine « us » (du, de la)  pour nommer une plante vivant en eau salée.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes marines herbacées, vivaces, dont les caractères distinctifs sont les suivants[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes marines herbacées, vivaces, dont les caractères distinctifs sont les suivants :
 rhizome jusqu'à 1,5 cm de large, densément recouvert de débris de fibres de feuilles déchiquetées,
 nombreuses racines, non ramifiées de 10 à 20 cm de long et 3 à 5 mm de large,
 feuilles de 30 à 150 cm de long et 1,25 à 1,75 cm de large avec une gaine à leur base, mais sans ligule.
-Les feuilles en forme de ruban se développent directement à partir des rhizomes et peuvent dépasser 1 m de longueur[1].  La pollinisation s’effectue à la surface de l’eau : les fleurs mâles se détachent de la plante et flottent en surface jusqu’à ce qu’elles entrent en contact avec les fleurs femelles permettant à la pollinisation de se produire[1].
+Les feuilles en forme de ruban se développent directement à partir des rhizomes et peuvent dépasser 1 m de longueur.  La pollinisation s’effectue à la surface de l’eau : les fleurs mâles se détachent de la plante et flottent en surface jusqu’à ce qu’elles entrent en contact avec les fleurs femelles permettant à la pollinisation de se produire.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une seule espèce est acceptée dans ce genre, d'après ITIS et WORMS :
 Enhalus acoroides (L.f.) Royle, 1839
@@ -582,7 +598,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Enhalus acoroides
 Enhalus koenigii Rich., 1814
@@ -616,10 +634,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a une large distribution des côtes orientales de l'Afrique jusqu'aux Îles Ryūkyū (Japon) ; sur les côtes sud et est des îles Salomon ; en Nouvelle-Calédonie ; dans le détroit de Torrès et le nord du Queensland (Australie) [4].
-On en récolte jusqu'à Singapour[5] en particulier à Pulau Semakau[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a une large distribution des côtes orientales de l'Afrique jusqu'aux Îles Ryūkyū (Japon) ; sur les côtes sud et est des îles Salomon ; en Nouvelle-Calédonie ; dans le détroit de Torrès et le nord du Queensland (Australie) .
+On en récolte jusqu'à Singapour en particulier à Pulau Semakau.
 </t>
         </is>
       </c>
@@ -649,6 +669,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
